--- a/Bees/xlsx/comb.xlsx
+++ b/Bees/xlsx/comb.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cici\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cici\Desktop\蜜蜂数值调整\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C68293D-2E1D-49C8-8E3D-0F0619815891}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3700098-4D18-4244-8267-5C8648D05B20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="108" windowWidth="12768" windowHeight="5712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -510,10 +510,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -542,10 +542,10 @@
         <v>4000</v>
       </c>
       <c r="D3" s="1">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="E3" s="1">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="F3" s="1">
         <v>200</v>
@@ -574,10 +574,10 @@
         <v>60000</v>
       </c>
       <c r="D4" s="1">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="E4" s="1">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="F4" s="1">
         <v>2000</v>
@@ -606,10 +606,10 @@
         <v>800000</v>
       </c>
       <c r="D5" s="1">
-        <v>160000</v>
+        <v>80000</v>
       </c>
       <c r="E5" s="1">
-        <v>160000</v>
+        <v>80000</v>
       </c>
       <c r="F5" s="1">
         <v>20000</v>
@@ -979,7 +979,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -990,10 +990,10 @@
         <v>3.2E+18</v>
       </c>
       <c r="D17" s="1">
-        <v>6.4E+17</v>
+        <v>9.6E+17</v>
       </c>
       <c r="E17" s="1">
-        <v>6.4E+17</v>
+        <v>9.6E+17</v>
       </c>
       <c r="F17" s="1">
         <v>2E+16</v>
@@ -1011,7 +1011,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1022,10 +1022,10 @@
         <v>3.4E+19</v>
       </c>
       <c r="D18" s="1">
-        <v>6.8E+18</v>
+        <v>1.02E+19</v>
       </c>
       <c r="E18" s="1">
-        <v>6.8E+18</v>
+        <v>1.02E+19</v>
       </c>
       <c r="F18" s="1">
         <v>2E+17</v>
@@ -1042,8 +1042,10 @@
       <c r="J18" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1054,10 +1056,10 @@
         <v>3.6E+20</v>
       </c>
       <c r="D19" s="1">
-        <v>7.2E+19</v>
+        <v>1.08E+20</v>
       </c>
       <c r="E19" s="1">
-        <v>7.2E+19</v>
+        <v>1.08E+20</v>
       </c>
       <c r="F19" s="1">
         <v>2E+18</v>
@@ -1074,8 +1076,10 @@
       <c r="J19" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1086,10 +1090,10 @@
         <v>3.8E+21</v>
       </c>
       <c r="D20" s="1">
-        <v>7.6E+20</v>
+        <v>1.14E+21</v>
       </c>
       <c r="E20" s="1">
-        <v>7.6E+20</v>
+        <v>1.14E+21</v>
       </c>
       <c r="F20" s="1">
         <v>2E+19</v>
@@ -1106,8 +1110,10 @@
       <c r="J20" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1118,10 +1124,10 @@
         <v>4E+22</v>
       </c>
       <c r="D21" s="1">
-        <v>8E+21</v>
+        <v>1.2E+22</v>
       </c>
       <c r="E21" s="1">
-        <v>8E+21</v>
+        <v>1.2E+22</v>
       </c>
       <c r="F21" s="1">
         <v>2E+20</v>
@@ -1138,8 +1144,10 @@
       <c r="J21" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1150,10 +1158,10 @@
         <v>4.2000000000000003E+23</v>
       </c>
       <c r="D22" s="1">
-        <v>8.3999999999999992E+22</v>
+        <v>1.2599999999999999E+23</v>
       </c>
       <c r="E22" s="1">
-        <v>8.3999999999999992E+22</v>
+        <v>1.2599999999999999E+23</v>
       </c>
       <c r="F22" s="1">
         <v>2E+21</v>
@@ -1170,8 +1178,10 @@
       <c r="J22" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1182,10 +1192,10 @@
         <v>4.4E+24</v>
       </c>
       <c r="D23" s="1">
-        <v>8.8000000000000003E+23</v>
+        <v>1.3200000000000001E+24</v>
       </c>
       <c r="E23" s="1">
-        <v>8.8000000000000003E+23</v>
+        <v>1.3200000000000001E+24</v>
       </c>
       <c r="F23" s="1">
         <v>2E+22</v>
@@ -1202,8 +1212,10 @@
       <c r="J23" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1214,10 +1226,10 @@
         <v>4.5999999999999996E+25</v>
       </c>
       <c r="D24" s="1">
-        <v>9.1999999999999996E+24</v>
+        <v>1.3800000000000001E+25</v>
       </c>
       <c r="E24" s="1">
-        <v>9.1999999999999996E+24</v>
+        <v>1.3800000000000001E+25</v>
       </c>
       <c r="F24" s="1">
         <v>1.9999999999999998E+23</v>
@@ -1234,8 +1246,10 @@
       <c r="J24" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1246,10 +1260,10 @@
         <v>4.8000000000000001E+26</v>
       </c>
       <c r="D25" s="1">
-        <v>9.5999999999999998E+25</v>
+        <v>1.4399999999999999E+26</v>
       </c>
       <c r="E25" s="1">
-        <v>9.5999999999999998E+25</v>
+        <v>1.4399999999999999E+26</v>
       </c>
       <c r="F25" s="1">
         <v>2E+24</v>
@@ -1266,8 +1280,10 @@
       <c r="J25" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1278,10 +1294,10 @@
         <v>5.0000000000000009E+27</v>
       </c>
       <c r="D26" s="1">
-        <v>1E+27</v>
+        <v>2E+27</v>
       </c>
       <c r="E26" s="1">
-        <v>1E+27</v>
+        <v>2E+27</v>
       </c>
       <c r="F26" s="1">
         <v>1.9999999999999998E+25</v>
@@ -1299,7 +1315,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1310,10 +1326,10 @@
         <v>5.2000000000000004E+28</v>
       </c>
       <c r="D27" s="1">
-        <v>1.04E+28</v>
+        <v>2.0800000000000001E+28</v>
       </c>
       <c r="E27" s="1">
-        <v>1.04E+28</v>
+        <v>2.0800000000000001E+28</v>
       </c>
       <c r="F27" s="1">
         <v>2.0000000000000001E+26</v>
@@ -1330,8 +1346,10 @@
       <c r="J27" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1342,10 +1360,10 @@
         <v>5.4E+29</v>
       </c>
       <c r="D28" s="1">
-        <v>1.0800000000000001E+29</v>
+        <v>2.1600000000000001E+29</v>
       </c>
       <c r="E28" s="1">
-        <v>1.0800000000000001E+29</v>
+        <v>2.1600000000000001E+29</v>
       </c>
       <c r="F28" s="1">
         <v>2E+27</v>
@@ -1362,8 +1380,10 @@
       <c r="J28" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1374,10 +1394,10 @@
         <v>5.5999999999999997E+30</v>
       </c>
       <c r="D29" s="1">
-        <v>1.12E+30</v>
+        <v>2.24E+30</v>
       </c>
       <c r="E29" s="1">
-        <v>1.12E+30</v>
+        <v>2.24E+30</v>
       </c>
       <c r="F29" s="1">
         <v>1.9999999999999999E+28</v>
@@ -1394,8 +1414,10 @@
       <c r="J29" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1406,10 +1428,10 @@
         <v>5.7999999999999992E+31</v>
       </c>
       <c r="D30" s="1">
-        <v>1.1599999999999999E+31</v>
+        <v>2.3199999999999998E+31</v>
       </c>
       <c r="E30" s="1">
-        <v>1.1599999999999999E+31</v>
+        <v>2.3199999999999998E+31</v>
       </c>
       <c r="F30" s="1">
         <v>1.9999999999999998E+29</v>
@@ -1426,8 +1448,10 @@
       <c r="J30" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1438,10 +1462,10 @@
         <v>6E+32</v>
       </c>
       <c r="D31" s="1">
-        <v>1.2E+32</v>
+        <v>2.3999999999999999E+32</v>
       </c>
       <c r="E31" s="1">
-        <v>1.2E+32</v>
+        <v>2.3999999999999999E+32</v>
       </c>
       <c r="F31" s="1">
         <v>1.9999999999999998E+30</v>
@@ -1458,6 +1482,8 @@
       <c r="J31" s="1">
         <v>2.5</v>
       </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
